--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
@@ -1139,10 +1139,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
         <v>2.25</v>
@@ -2939,79 +2939,79 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="H18" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I18" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="J18" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="K18" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="L18" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="R18" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="S18" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="T18" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X18" t="n">
         <v>6.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AA18" t="n">
         <v>10.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF18" t="n">
         <v>100</v>
@@ -3020,43 +3020,43 @@
         <v>700</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ18" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AK18" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL18" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN18" t="n">
         <v>3.2</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AP18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AR18" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AS18" t="n">
         <v>175</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="AU18" t="n">
         <v>8.75</v>
@@ -3068,19 +3068,19 @@
         <v>51</v>
       </c>
       <c r="AX18" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AY18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AZ18" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA18" t="n">
+        <v>450</v>
+      </c>
+      <c r="BB18" t="n">
         <v>400</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>350</v>
       </c>
       <c r="BC18" t="n">
         <v>450</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>2.2</v>
@@ -1306,7 +1306,7 @@
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1348,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1370,16 +1370,16 @@
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
@@ -1388,7 +1388,7 @@
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
         <v>8</v>
@@ -1409,10 +1409,10 @@
         <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
         <v>81</v>
@@ -1421,7 +1421,7 @@
         <v>7.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
@@ -1844,16 +1844,16 @@
         <v>2.25</v>
       </c>
       <c r="J8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N8" t="n">
         <v>7</v>
@@ -1877,16 +1877,16 @@
         <v>2.37</v>
       </c>
       <c r="U8" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
         <v>1.7</v>
       </c>
       <c r="W8" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
         <v>11.5</v>
@@ -1895,7 +1895,7 @@
         <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB8" t="n">
         <v>45</v>
@@ -1913,7 +1913,7 @@
         <v>100</v>
       </c>
       <c r="AG8" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
         <v>6.4</v>
@@ -1937,10 +1937,10 @@
         <v>4.8</v>
       </c>
       <c r="AO8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ8" t="n">
         <v>90</v>
@@ -1955,17 +1955,17 @@
         <v>2.35</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>80</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AZ8" t="n">
         <v>23</v>
@@ -1984,7 +1984,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MLsbZI4b</t>
+          <t>tKBCTArm</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1994,79 +1994,175 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MARTINIQUE - TROPHEE GERARD JANVION</t>
+          <t>EL SALVADOR - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Aiglon Lamentin</t>
+          <t>Aguila</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Samaritaine</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
+          <t>Luis Angel Firpo</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>55</v>
+      </c>
       <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
+      <c r="AX9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>300</v>
+      </c>
       <c r="BD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06gkyuzn</t>
+          <t>MLsbZI4b</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2086,12 +2182,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Club Peleen</t>
+          <t>Aiglon Lamentin</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Emulation</t>
+          <t>Samaritaine</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -2148,7 +2244,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4G1tZ9AF</t>
+          <t>06gkyuzn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2168,12 +2264,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CS Case-Pilote</t>
+          <t>Club Peleen</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trenelle</t>
+          <t>Emulation</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -2230,7 +2326,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8UHwFlJq</t>
+          <t>4G1tZ9AF</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2250,12 +2346,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Diamantinoise</t>
+          <t>CS Case-Pilote</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>New Club</t>
+          <t>Trenelle</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -2312,7 +2408,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>djbYzWu3</t>
+          <t>8UHwFlJq</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2332,12 +2428,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Espoir</t>
+          <t>Diamantinoise</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>RC Saint Joseph</t>
+          <t>New Club</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -2394,7 +2490,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>trGoDSmd</t>
+          <t>djbYzWu3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2414,12 +2510,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Golden Lion</t>
+          <t>Espoir</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Club Colonial</t>
+          <t>RC Saint Joseph</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -2476,7 +2572,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Uoo6XdZA</t>
+          <t>trGoDSmd</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2496,12 +2592,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Golden Star</t>
+          <t>Golden Lion</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Franciscain</t>
+          <t>Club Colonial</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -2558,7 +2654,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6VMJmClJ</t>
+          <t>Uoo6XdZA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2568,159 +2664,71 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PORTUGAL - TAÇA DE PORTUGAL</t>
+          <t>MARTINIQUE - TROPHEE GERARD JANVION</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Golden Star</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Amarante</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="H16" t="n">
-        <v>21</v>
-      </c>
-      <c r="I16" t="n">
-        <v>34</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L16" t="n">
-        <v>29</v>
-      </c>
-      <c r="M16" t="n">
-        <v>41</v>
-      </c>
-      <c r="N16" t="n">
-        <v>27</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W16" t="n">
-        <v>15</v>
-      </c>
-      <c r="X16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>351</v>
-      </c>
+          <t>Franciscain</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>67</v>
-      </c>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>151</v>
-      </c>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>351</v>
-      </c>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
       <c r="BB16" t="inlineStr"/>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
@@ -2728,7 +2736,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CbKSKKZH</t>
+          <t>tvUXozpg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2738,354 +2746,700 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>URUGUAY - COPA URUGUAY</t>
+          <t>NEW ZEALAND - NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Cashmere Technical</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Birkenhead</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.8</v>
+        <v>4.55</v>
       </c>
       <c r="I17" t="n">
-        <v>2.65</v>
+        <v>1.57</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>1.98</v>
+        <v>2.77</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6.3</v>
-      </c>
+        <v>1.95</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>2.85</v>
+        <v>7.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.18</v>
+        <v>1.21</v>
       </c>
       <c r="R17" t="n">
-        <v>1.65</v>
+        <v>3.44</v>
       </c>
       <c r="S17" t="n">
-        <v>1.45</v>
+        <v>1.14</v>
       </c>
       <c r="T17" t="n">
-        <v>2.67</v>
+        <v>4.9</v>
       </c>
       <c r="U17" t="n">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="V17" t="n">
-        <v>1.95</v>
+        <v>3.52</v>
       </c>
       <c r="W17" t="n">
-        <v>8.5</v>
+        <v>22</v>
       </c>
       <c r="X17" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP17" t="n">
         <v>17</v>
       </c>
-      <c r="Y17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF17" t="n">
+      <c r="AQ17" t="n">
         <v>70</v>
       </c>
-      <c r="AG17" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH17" t="n">
+      <c r="AR17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>250</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AY17" t="n">
         <v>7.4</v>
       </c>
-      <c r="AI17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AZ17" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="BC17" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>51</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>6VMJmClJ</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PORTUGAL - TAÇA DE PORTUGAL</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Amarante</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H18" t="n">
+        <v>21</v>
+      </c>
+      <c r="I18" t="n">
+        <v>34</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>29</v>
+      </c>
+      <c r="M18" t="n">
+        <v>41</v>
+      </c>
+      <c r="N18" t="n">
+        <v>27</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W18" t="n">
+        <v>15</v>
+      </c>
+      <c r="X18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CbKSKKZH</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>URUGUAY - COPA URUGUAY</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Defensor Sp.</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>8QDyJb4U</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>22/11/2024</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>21:15</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>URUGUAY - COPA URUGUAY</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Nacional</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Montevideo City</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="G20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J20" t="n">
         <v>1.62</v>
       </c>
-      <c r="K18" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="K20" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M20" t="n">
         <v>1.03</v>
       </c>
-      <c r="N18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="N20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.98</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V20" t="n">
         <v>1.75</v>
       </c>
-      <c r="W18" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X18" t="n">
+      <c r="W20" t="n">
+        <v>8</v>
+      </c>
+      <c r="X20" t="n">
         <v>6.6</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Y20" t="n">
         <v>9</v>
       </c>
-      <c r="Z18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA18" t="n">
+      <c r="Z20" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA20" t="n">
         <v>10.5</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB20" t="n">
         <v>27</v>
       </c>
-      <c r="AC18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AC20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE20" t="n">
         <v>23</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF20" t="n">
         <v>100</v>
       </c>
-      <c r="AG18" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI18" t="n">
+      <c r="AG20" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM20" t="n">
         <v>90</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK18" t="n">
+      <c r="AN20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>400</v>
+      </c>
+      <c r="BB20" t="n">
         <v>350</v>
       </c>
-      <c r="AL18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>450</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD18" t="n">
+      <c r="BC20" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD20" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,7 +936,7 @@
         <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
         <v>2.4</v>
@@ -963,16 +963,16 @@
         <v>2.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -996,13 +996,13 @@
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
@@ -1041,13 +1041,13 @@
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1068,7 +1068,7 @@
         <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC3" t="n">
         <v>201</v>
@@ -1309,10 +1309,10 @@
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1321,10 +1321,10 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1683,10 +1683,10 @@
         <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
@@ -2765,22 +2765,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="I17" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="L17" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -2809,79 +2809,79 @@
         <v>3.52</v>
       </c>
       <c r="W17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF17" t="n">
         <v>22</v>
       </c>
-      <c r="X17" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>23</v>
-      </c>
       <c r="AG17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI17" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AJ17" t="n">
         <v>8.25</v>
       </c>
       <c r="AK17" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AM17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AR17" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AS17" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AT17" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AV17" t="n">
         <v>28</v>
@@ -2890,19 +2890,19 @@
         <v>250</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="AY17" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="AZ17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BB17" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BC17" t="n">
         <v>70</v>
@@ -2912,7 +2912,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6VMJmClJ</t>
+          <t>8QDyJb4U</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2922,524 +2922,172 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PORTUGAL - TAÇA DE PORTUGAL</t>
+          <t>URUGUAY - COPA URUGUAY</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Amarante</t>
+          <t>Montevideo City</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M18" t="n">
         <v>1.03</v>
       </c>
-      <c r="H18" t="n">
-        <v>21</v>
-      </c>
-      <c r="I18" t="n">
-        <v>34</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>29</v>
       </c>
-      <c r="M18" t="n">
-        <v>41</v>
-      </c>
-      <c r="N18" t="n">
-        <v>27</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P18" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W18" t="n">
-        <v>15</v>
-      </c>
-      <c r="X18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AK18" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW18" t="n">
         <v>51</v>
       </c>
-      <c r="AC18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
-        <v>34</v>
+        <v>10.25</v>
       </c>
       <c r="AY18" t="n">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="AZ18" t="n">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="BA18" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>CbKSKKZH</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>22/11/2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>17:45</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>URUGUAY - COPA URUGUAY</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Boston River</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X19" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>65</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>90</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>8QDyJb4U</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>22/11/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>21:15</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>URUGUAY - COPA URUGUAY</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Montevideo City</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W20" t="n">
-        <v>8</v>
-      </c>
-      <c r="X20" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA20" t="n">
         <v>400</v>
       </c>
-      <c r="BB20" t="n">
+      <c r="BB18" t="n">
         <v>350</v>
       </c>
-      <c r="BC20" t="n">
+      <c r="BC18" t="n">
         <v>500</v>
       </c>
-      <c r="BD20" t="n">
+      <c r="BD18" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1291,28 +1291,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1321,10 +1321,10 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1348,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1360,26 +1360,26 @@
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
@@ -1388,16 +1388,16 @@
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1409,28 +1409,28 @@
         <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
         <v>81</v>
       </c>
       <c r="AX5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
       </c>
       <c r="BA5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB5" t="n">
         <v>151</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>2.2</v>
@@ -1525,7 +1525,7 @@
         <v>6.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
         <v>11</v>
@@ -1543,7 +1543,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
@@ -1552,10 +1552,10 @@
         <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>21</v>
@@ -1609,7 +1609,7 @@
         <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
         <v>151</v>
@@ -1806,7 +1806,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fP6hOF67</t>
+          <t>tKBCTArm</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1826,165 +1826,165 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Platense Municipal</t>
+          <t>Aguila</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cacahuatique</t>
+          <t>Luis Angel Firpo</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L8" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="S8" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>2.37</v>
+        <v>3.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>1.6</v>
       </c>
       <c r="V8" t="n">
-        <v>1.7</v>
+        <v>2.07</v>
       </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="X8" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="n">
         <v>15</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AD8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK8" t="n">
         <v>45</v>
       </c>
-      <c r="AC8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AL8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP8" t="n">
         <v>17</v>
       </c>
-      <c r="AF8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM8" t="n">
+      <c r="AQ8" t="n">
         <v>37</v>
       </c>
-      <c r="AN8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>90</v>
-      </c>
       <c r="AR8" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AS8" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.35</v>
+        <v>2.82</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AV8" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="AY8" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA8" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="BB8" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BC8" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tKBCTArm</t>
+          <t>MLsbZI4b</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1994,175 +1994,79 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EL SALVADOR - PRIMERA DIVISION</t>
+          <t>MARTINIQUE - TROPHEE GERARD JANVION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Aguila</t>
+          <t>Aiglon Lamentin</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Luis Angel Firpo</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X9" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>55</v>
-      </c>
+          <t>Samaritaine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>120</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>300</v>
-      </c>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MLsbZI4b</t>
+          <t>06gkyuzn</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2182,12 +2086,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aiglon Lamentin</t>
+          <t>Club Peleen</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Samaritaine</t>
+          <t>Emulation</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -2244,7 +2148,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06gkyuzn</t>
+          <t>4G1tZ9AF</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2264,12 +2168,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Club Peleen</t>
+          <t>CS Case-Pilote</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Emulation</t>
+          <t>Trenelle</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -2326,7 +2230,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4G1tZ9AF</t>
+          <t>8UHwFlJq</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2346,12 +2250,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CS Case-Pilote</t>
+          <t>Diamantinoise</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trenelle</t>
+          <t>New Club</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -2408,7 +2312,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8UHwFlJq</t>
+          <t>djbYzWu3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2428,12 +2332,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Diamantinoise</t>
+          <t>Espoir</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>New Club</t>
+          <t>RC Saint Joseph</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -2490,7 +2394,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>djbYzWu3</t>
+          <t>trGoDSmd</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2510,12 +2414,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Espoir</t>
+          <t>Golden Lion</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>RC Saint Joseph</t>
+          <t>Club Colonial</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -2572,7 +2476,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>trGoDSmd</t>
+          <t>Uoo6XdZA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2592,12 +2496,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Golden Lion</t>
+          <t>Golden Star</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Club Colonial</t>
+          <t>Franciscain</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -2654,7 +2558,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Uoo6XdZA</t>
+          <t>tvUXozpg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2664,79 +2568,173 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MARTINIQUE - TROPHEE GERARD JANVION</t>
+          <t>NEW ZEALAND - NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Golden Star</t>
+          <t>Cashmere Technical</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Franciscain</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+          <t>Birkenhead</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.1</v>
+      </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W16" t="n">
+        <v>20</v>
+      </c>
+      <c r="X16" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>250</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>28</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>70</v>
+      </c>
       <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tvUXozpg</t>
+          <t>8QDyJb4U</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2746,348 +2744,172 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NEW ZEALAND - NATIONAL LEAGUE</t>
+          <t>URUGUAY - COPA URUGUAY</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cashmere Technical</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Birkenhead</t>
+          <t>Montevideo City</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>1.26</v>
       </c>
       <c r="H17" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="I17" t="n">
-        <v>1.75</v>
+        <v>9.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>1.62</v>
       </c>
       <c r="K17" t="n">
         <v>2.72</v>
       </c>
       <c r="L17" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+        <v>7.7</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9.25</v>
+      </c>
       <c r="O17" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>7.9</v>
+        <v>4.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="R17" t="n">
-        <v>3.44</v>
+        <v>2.37</v>
       </c>
       <c r="S17" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="T17" t="n">
-        <v>4.9</v>
+        <v>3.55</v>
       </c>
       <c r="U17" t="n">
-        <v>1.28</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
-        <v>3.52</v>
+        <v>1.75</v>
       </c>
       <c r="W17" t="n">
-        <v>19.5</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>24</v>
+        <v>6.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>40</v>
+        <v>7.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="AC17" t="n">
-        <v>28</v>
+        <v>9.25</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="AG17" t="n">
-        <v>75</v>
+        <v>800</v>
       </c>
       <c r="AH17" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>12.5</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL17" t="n">
+      <c r="AR17" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX17" t="n">
         <v>10.25</v>
       </c>
-      <c r="AM17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>250</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>4.65</v>
-      </c>
       <c r="AY17" t="n">
-        <v>8.25</v>
+        <v>50</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="BA17" t="n">
-        <v>21</v>
+        <v>400</v>
       </c>
       <c r="BB17" t="n">
-        <v>28</v>
+        <v>350</v>
       </c>
       <c r="BC17" t="n">
-        <v>70</v>
-      </c>
-      <c r="BD17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>8QDyJb4U</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>22/11/2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>21:15</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>URUGUAY - COPA URUGUAY</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Montevideo City</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W18" t="n">
-        <v>8</v>
-      </c>
-      <c r="X18" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>400</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC18" t="n">
         <v>500</v>
       </c>
-      <c r="BD18" t="n">
+      <c r="BD17" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
         <v>2.05</v>
@@ -942,7 +942,7 @@
         <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -963,16 +963,16 @@
         <v>2.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -1002,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
@@ -1014,7 +1014,7 @@
         <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
         <v>67</v>
@@ -1041,13 +1041,13 @@
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1068,7 +1068,7 @@
         <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC3" t="n">
         <v>201</v>
@@ -1109,22 +1109,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1196,7 +1196,7 @@
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
@@ -1211,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
@@ -1223,7 +1223,7 @@
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT4" t="n">
         <v>2.25</v>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>2.25</v>
@@ -1306,25 +1306,25 @@
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1333,10 +1333,10 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1363,7 +1363,7 @@
         <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>67</v>
@@ -1376,7 +1376,7 @@
         <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
         <v>67</v>
@@ -1471,16 +1471,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
         <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
@@ -1489,10 +1489,10 @@
         <v>6.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1513,10 +1513,10 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1525,10 +1525,10 @@
         <v>6.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1540,7 +1540,7 @@
         <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
@@ -1561,7 +1561,7 @@
         <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
@@ -1612,7 +1612,7 @@
         <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
         <v>351</v>
@@ -1653,28 +1653,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.3</v>
@@ -1683,16 +1683,16 @@
         <v>3.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
         <v>1.8</v>
@@ -1704,22 +1704,22 @@
         <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
         <v>17</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
@@ -1734,34 +1734,34 @@
         <v>251</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN7" t="n">
         <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1770,7 +1770,7 @@
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1785,7 +1785,7 @@
         <v>5.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ7" t="n">
         <v>29</v>
@@ -1794,7 +1794,7 @@
         <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC7" t="n">
         <v>201</v>
@@ -2604,25 +2604,25 @@
       <c r="L16" t="n">
         <v>2.1</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
+      <c r="M16" t="n">
         <v>1.01</v>
       </c>
-      <c r="P16" t="n">
-        <v>8.1</v>
-      </c>
+      <c r="N16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="R16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="S16" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="T16" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="U16" t="n">
         <v>1.27</v>
@@ -2766,19 +2766,19 @@
         <v>1.26</v>
       </c>
       <c r="H17" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="I17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="K17" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="L17" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2787,16 +2787,16 @@
         <v>9.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R17" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="S17" t="n">
         <v>1.25</v>
@@ -2805,10 +2805,10 @@
         <v>3.55</v>
       </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V17" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W17" t="n">
         <v>8</v>
@@ -2817,7 +2817,7 @@
         <v>6.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z17" t="n">
         <v>7.7</v>
@@ -2826,7 +2826,7 @@
         <v>10.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
         <v>9.25</v>
@@ -2835,28 +2835,28 @@
         <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF17" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG17" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI17" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL17" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM17" t="n">
         <v>90</v>
@@ -2868,7 +2868,7 @@
         <v>5.3</v>
       </c>
       <c r="AP17" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>12.5</v>
@@ -2883,7 +2883,7 @@
         <v>3.55</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
         <v>70</v>
@@ -2892,10 +2892,10 @@
         <v>51</v>
       </c>
       <c r="AX17" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AZ17" t="n">
         <v>45</v>
@@ -2904,7 +2904,7 @@
         <v>400</v>
       </c>
       <c r="BB17" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC17" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -945,10 +945,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
@@ -1109,13 +1109,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -1133,16 +1133,16 @@
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2.6</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1157,16 +1157,16 @@
         <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
@@ -1181,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
@@ -1202,10 +1202,10 @@
         <v>41</v>
       </c>
       <c r="AL4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM4" t="n">
         <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
       </c>
       <c r="AN4" t="n">
         <v>4</v>
@@ -1244,7 +1244,7 @@
         <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>
@@ -1253,7 +1253,7 @@
         <v>126</v>
       </c>
       <c r="BC4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD4" t="n">
         <v>126</v>
@@ -1291,16 +1291,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1312,7 +1312,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1321,10 +1321,10 @@
         <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1339,13 +1339,13 @@
         <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
         <v>11</v>
@@ -1357,7 +1357,7 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1394,10 +1394,10 @@
         <v>8.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1433,7 +1433,7 @@
         <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD5" t="n">
         <v>81</v>
@@ -1471,22 +1471,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1501,10 +1501,10 @@
         <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1519,19 +1519,19 @@
         <v>1.62</v>
       </c>
       <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
         <v>6</v>
       </c>
-      <c r="X6" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1546,7 +1546,7 @@
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
         <v>900</v>
@@ -1558,7 +1558,7 @@
         <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
         <v>81</v>
@@ -1567,19 +1567,19 @@
         <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1591,19 +1591,19 @@
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
         <v>81</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
         <v>41</v>
@@ -1653,13 +1653,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
         <v>2.88</v>
@@ -1674,19 +1674,19 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
         <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1695,10 +1695,10 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
         <v>7.5</v>
@@ -1713,7 +1713,7 @@
         <v>19</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
         <v>29</v>
@@ -1752,7 +1752,7 @@
         <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
         <v>12</v>
@@ -1764,7 +1764,7 @@
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
@@ -1782,7 +1782,7 @@
         <v>81</v>
       </c>
       <c r="AX7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY7" t="n">
         <v>19</v>
@@ -2558,7 +2558,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tvUXozpg</t>
+          <t>2LASvoMN</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2568,348 +2568,882 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>23:06</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NEW ZEALAND - NATIONAL LEAGUE</t>
+          <t>MEXICO - LIGA MX WOMEN</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cashmere Technical</t>
+          <t>U.A.N.L.- Tigres W</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Birkenhead</t>
+          <t>Monterrey W</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>1.98</v>
       </c>
       <c r="H16" t="n">
-        <v>4.35</v>
+        <v>2.95</v>
       </c>
       <c r="I16" t="n">
-        <v>1.72</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.72</v>
+        <v>2.02</v>
       </c>
       <c r="L16" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI16" t="n">
         <v>16.5</v>
       </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W16" t="n">
-        <v>20</v>
-      </c>
-      <c r="X16" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="AJ16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO16" t="n">
         <v>10</v>
       </c>
-      <c r="AF16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AN16" t="n">
+      <c r="AP16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU16" t="n">
         <v>6.6</v>
       </c>
-      <c r="AO16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AV16" t="n">
         <v>55</v>
       </c>
-      <c r="AS16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>250</v>
-      </c>
+      <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>4.65</v>
+        <v>5.7</v>
       </c>
       <c r="AY16" t="n">
-        <v>8.25</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="BA16" t="n">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="BB16" t="n">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="BC16" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>tvUXozpg</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NEW ZEALAND - NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cashmere Technical</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Birkenhead</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>20</v>
+      </c>
+      <c r="X17" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>250</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>28</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>70</v>
+      </c>
+      <c r="BD17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EiSupEE5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NEW ZEALAND - NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Wellington Olympic</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Napier City</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N18" t="n">
+        <v>15</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="W18" t="n">
+        <v>12</v>
+      </c>
+      <c r="X18" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>350</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>65</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>120</v>
+      </c>
+      <c r="BD18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AJLlrhqI</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>22/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NEW ZEALAND - NATIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Western Springs</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix 2</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P19" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="W19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>37</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>400</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>175</v>
+      </c>
+      <c r="BD19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>8QDyJb4U</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>22/11/2024</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>21:15</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>URUGUAY - COPA URUGUAY</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Nacional</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Montevideo City</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S20" t="n">
         <v>1.26</v>
       </c>
-      <c r="H17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="L17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="T20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W20" t="n">
+        <v>8</v>
+      </c>
+      <c r="X20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC20" t="n">
         <v>9.25</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8</v>
-      </c>
-      <c r="X17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF17" t="n">
+      <c r="AD20" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF20" t="n">
         <v>90</v>
       </c>
-      <c r="AG17" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK17" t="n">
+      <c r="AG20" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>350</v>
+      </c>
+      <c r="BB20" t="n">
         <v>300</v>
       </c>
-      <c r="AL17" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>400</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC17" t="n">
+      <c r="BC20" t="n">
         <v>500</v>
       </c>
-      <c r="BD17" t="n">
+      <c r="BD20" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1262,7 +1262,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bcwMI4Uc</t>
+          <t>xrkDKQao</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1282,31 +1282,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K5" t="n">
         <v>2.2</v>
       </c>
-      <c r="K5" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1321,10 +1321,10 @@
         <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1333,25 +1333,25 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X5" t="n">
         <v>6</v>
-      </c>
-      <c r="X5" t="n">
-        <v>7</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
@@ -1360,44 +1360,46 @@
         <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>900</v>
+      </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1409,28 +1411,28 @@
         <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
         <v>81</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>351</v>
@@ -1442,7 +1444,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>xrkDKQao</t>
+          <t>C2Y1D9hI</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1452,7 +1454,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1462,31 +1464,31 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1495,16 +1497,16 @@
         <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
         <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1513,109 +1515,109 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
         <v>13</v>
       </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ6" t="n">
+      <c r="AP6" t="n">
         <v>23</v>
       </c>
-      <c r="AK6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
         <v>67</v>
       </c>
-      <c r="AN6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
         <v>81</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC6" t="n">
         <v>201</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>351</v>
       </c>
       <c r="BD6" t="n">
         <v>81</v>
@@ -1624,7 +1626,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C2Y1D9hI</t>
+          <t>tKBCTArm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1634,179 +1636,175 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>EL SALVADOR - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Aguila</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Luis Angel Firpo</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.33</v>
       </c>
-      <c r="P7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>3.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
         <v>19</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG7" t="n">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP7" t="n">
         <v>17</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AR7" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.82</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>81</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ7" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="BB7" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="BC7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>81</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="BD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>tKBCTArm</t>
+          <t>MLsbZI4b</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1816,175 +1814,79 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EL SALVADOR - PRIMERA DIVISION</t>
+          <t>MARTINIQUE - TROPHEE GERARD JANVION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aguila</t>
+          <t>Aiglon Lamentin</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Luis Angel Firpo</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X8" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>55</v>
-      </c>
+          <t>Samaritaine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>120</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>300</v>
-      </c>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MLsbZI4b</t>
+          <t>06gkyuzn</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2004,12 +1906,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Aiglon Lamentin</t>
+          <t>Club Peleen</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Samaritaine</t>
+          <t>Emulation</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -2066,7 +1968,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06gkyuzn</t>
+          <t>4G1tZ9AF</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2086,12 +1988,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Club Peleen</t>
+          <t>CS Case-Pilote</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Emulation</t>
+          <t>Trenelle</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -2148,7 +2050,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4G1tZ9AF</t>
+          <t>8UHwFlJq</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2168,12 +2070,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CS Case-Pilote</t>
+          <t>Diamantinoise</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trenelle</t>
+          <t>New Club</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -2230,7 +2132,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8UHwFlJq</t>
+          <t>djbYzWu3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2250,12 +2152,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Diamantinoise</t>
+          <t>Espoir</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>New Club</t>
+          <t>RC Saint Joseph</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -2312,7 +2214,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>djbYzWu3</t>
+          <t>trGoDSmd</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2332,12 +2234,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Espoir</t>
+          <t>Golden Lion</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>RC Saint Joseph</t>
+          <t>Club Colonial</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -2394,7 +2296,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>trGoDSmd</t>
+          <t>Uoo6XdZA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2414,12 +2316,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Golden Lion</t>
+          <t>Golden Star</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Club Colonial</t>
+          <t>Franciscain</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -2476,7 +2378,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Uoo6XdZA</t>
+          <t>2LASvoMN</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2486,79 +2388,175 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>23:06</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MARTINIQUE - TROPHEE GERARD JANVION</t>
+          <t>MEXICO - LIGA MX WOMEN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Golden Star</t>
+          <t>U.A.N.L.- Tigres W</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Franciscain</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
+          <t>Monterrey W</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>55</v>
+      </c>
       <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
+      <c r="AX15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>300</v>
+      </c>
       <c r="BD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2LASvoMN</t>
+          <t>tvUXozpg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2568,175 +2566,173 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23:06</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX WOMEN</t>
+          <t>NEW ZEALAND - NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres W</t>
+          <t>Cashmere Technical</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Monterrey W</t>
+          <t>Birkenhead</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.98</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.95</v>
+        <v>4.35</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>1.72</v>
       </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.02</v>
+        <v>2.72</v>
       </c>
       <c r="L16" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.92</v>
-      </c>
+        <v>16.5</v>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>1.19</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="S16" t="n">
-        <v>1.37</v>
+        <v>1.13</v>
       </c>
       <c r="T16" t="n">
-        <v>2.5</v>
+        <v>5.1</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.27</v>
       </c>
       <c r="V16" t="n">
-        <v>1.88</v>
+        <v>3.6</v>
       </c>
       <c r="W16" t="n">
-        <v>5.9</v>
+        <v>20</v>
       </c>
       <c r="X16" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
-        <v>7</v>
+        <v>11.75</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AA16" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF16" t="n">
         <v>21</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AG16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>8.25</v>
       </c>
-      <c r="AD16" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI16" t="n">
+      <c r="AK16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO16" t="n">
         <v>16.5</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>10</v>
-      </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AR16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="AU16" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AV16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW16" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>250</v>
+      </c>
       <c r="AX16" t="n">
-        <v>5.7</v>
+        <v>4.65</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>8.25</v>
       </c>
       <c r="AZ16" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="BB16" t="n">
-        <v>150</v>
+        <v>28</v>
       </c>
       <c r="BC16" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tvUXozpg</t>
+          <t>EiSupEE5</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2746,7 +2742,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2756,163 +2752,167 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cashmere Technical</t>
+          <t>Wellington Olympic</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Birkenhead</t>
+          <t>Napier City</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L17" t="n">
         <v>3.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.1</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+        <v>14.9</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5.8</v>
+      </c>
       <c r="Q17" t="n">
-        <v>1.19</v>
+        <v>1.53</v>
       </c>
       <c r="R17" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="T17" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="U17" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="V17" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="W17" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="X17" t="n">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.75</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AA17" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AB17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AI17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV17" t="n">
         <v>30</v>
       </c>
-      <c r="AD17" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK17" t="n">
+      <c r="AW17" t="n">
+        <v>300</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AY17" t="n">
         <v>15.5</v>
       </c>
-      <c r="AL17" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ17" t="n">
+      <c r="AZ17" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA17" t="n">
         <v>60</v>
       </c>
-      <c r="AR17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>250</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>21</v>
-      </c>
       <c r="BB17" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="BC17" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EiSupEE5</t>
+          <t>AJLlrhqI</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2932,167 +2932,163 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Wellington Olympic</t>
+          <t>Western Springs</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Napier City</t>
+          <t>Wellington Phoenix 2</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.78</v>
+        <v>1.31</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="K18" t="n">
-        <v>2.57</v>
+        <v>2.92</v>
       </c>
       <c r="L18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N18" t="n">
-        <v>15</v>
-      </c>
+        <v>5.4</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="R18" t="n">
-        <v>2.2</v>
+        <v>3.66</v>
       </c>
       <c r="S18" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="T18" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="U18" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="V18" t="n">
-        <v>3.08</v>
+        <v>2.73</v>
       </c>
       <c r="W18" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="X18" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>9.75</v>
       </c>
       <c r="AA18" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB18" t="n">
         <v>13.5</v>
       </c>
       <c r="AC18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AR18" t="n">
         <v>23</v>
       </c>
-      <c r="AD18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF18" t="n">
+      <c r="AS18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>24</v>
       </c>
-      <c r="AG18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>350</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>17</v>
-      </c>
       <c r="BA18" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="BB18" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="BC18" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AJLlrhqI</t>
+          <t>8QDyJb4U</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3102,348 +3098,172 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NEW ZEALAND - NATIONAL LEAGUE</t>
+          <t>URUGUAY - COPA URUGUAY</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Western Springs</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Wellington Phoenix 2</t>
+          <t>Montevideo City</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="H19" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I19" t="n">
-        <v>6.2</v>
+        <v>8.75</v>
       </c>
       <c r="J19" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="K19" t="n">
-        <v>2.92</v>
+        <v>2.62</v>
       </c>
       <c r="L19" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+        <v>7.2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9.25</v>
+      </c>
       <c r="O19" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W19" t="n">
         <v>8</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T19" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="W19" t="n">
-        <v>13.5</v>
-      </c>
       <c r="X19" t="n">
-        <v>9.5</v>
+        <v>6.8</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX19" t="n">
         <v>9.75</v>
       </c>
-      <c r="AA19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL19" t="n">
+      <c r="AY19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>40</v>
       </c>
-      <c r="AM19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>37</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>400</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>24</v>
-      </c>
       <c r="BA19" t="n">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="BB19" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="BC19" t="n">
-        <v>175</v>
-      </c>
-      <c r="BD19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>8QDyJb4U</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>22/11/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>21:15</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>URUGUAY - COPA URUGUAY</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Montevideo City</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="W20" t="n">
-        <v>8</v>
-      </c>
-      <c r="X20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>35</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>40</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>350</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC20" t="n">
         <v>500</v>
       </c>
-      <c r="BD20" t="n">
+      <c r="BD19" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
@@ -933,7 +933,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>2.05</v>
@@ -945,10 +945,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.2</v>
@@ -1133,16 +1133,16 @@
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1291,16 +1291,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
@@ -1494,7 +1494,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1524,7 +1524,7 @@
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
@@ -1560,7 +1560,7 @@
         <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>34</v>
@@ -1575,7 +1575,7 @@
         <v>4.33</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
@@ -1605,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>26</v>
@@ -2585,147 +2585,147 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H16" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="I16" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="L16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+        <v>2.07</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P16" t="n">
+        <v>7.5</v>
+      </c>
       <c r="Q16" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="R16" t="n">
-        <v>3.6</v>
+        <v>3.94</v>
       </c>
       <c r="S16" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="T16" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="V16" t="n">
-        <v>3.6</v>
+        <v>3.87</v>
       </c>
       <c r="W16" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="X16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA16" t="n">
         <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AE16" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF16" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AH16" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK16" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL16" t="n">
         <v>10.25</v>
       </c>
       <c r="AM16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AO16" t="n">
         <v>16.5</v>
       </c>
       <c r="AP16" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS16" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AT16" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="AU16" t="n">
         <v>6.2</v>
       </c>
       <c r="AV16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AW16" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.65</v>
+        <v>4.9</v>
       </c>
       <c r="AY16" t="n">
         <v>8.25</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="BA16" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BB16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BC16" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BD16" t="inlineStr"/>
     </row>
@@ -3117,22 +3117,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H19" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I19" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="J19" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K19" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="L19" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3144,40 +3144,40 @@
         <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R19" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="S19" t="n">
         <v>1.26</v>
       </c>
       <c r="T19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="U19" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
         <v>1.82</v>
       </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X19" t="n">
         <v>6.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z19" t="n">
         <v>8.25</v>
       </c>
       <c r="AA19" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB19" t="n">
         <v>25</v>
@@ -3186,7 +3186,7 @@
         <v>9.25</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3195,7 +3195,7 @@
         <v>90</v>
       </c>
       <c r="AG19" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH19" t="n">
         <v>25</v>
@@ -3204,61 +3204,61 @@
         <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK19" t="n">
         <v>250</v>
       </c>
       <c r="AL19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="n">
         <v>3.3</v>
       </c>
       <c r="AO19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AP19" t="n">
         <v>14</v>
       </c>
       <c r="AQ19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AR19" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AS19" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW19" t="n">
         <v>51</v>
       </c>
       <c r="AX19" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AY19" t="n">
         <v>50</v>
       </c>
       <c r="AZ19" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA19" t="n">
+        <v>400</v>
+      </c>
+      <c r="BB19" t="n">
         <v>350</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>300</v>
       </c>
       <c r="BC19" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
@@ -774,7 +774,7 @@
         <v>1.03</v>
       </c>
       <c r="P2" t="n">
-        <v>6.85</v>
+        <v>6.9</v>
       </c>
       <c r="Q2" t="n">
         <v>1.27</v>
@@ -783,10 +783,10 @@
         <v>3.04</v>
       </c>
       <c r="S2" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="T2" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="U2" t="n">
         <v>1.32</v>
@@ -1291,16 +1291,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1494,7 +1494,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -2407,34 +2407,34 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>2.95</v>
       </c>
       <c r="I15" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K15" t="n">
         <v>2.02</v>
       </c>
       <c r="L15" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="Q15" t="n">
         <v>1.98</v>
@@ -2449,82 +2449,82 @@
         <v>2.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V15" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W15" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="X15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC15" t="n">
         <v>8</v>
       </c>
-      <c r="Y15" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AD15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AE15" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG15" t="n">
         <v>350</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI15" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>45</v>
       </c>
-      <c r="AL15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>37</v>
-      </c>
       <c r="AR15" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS15" t="n">
         <v>200</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU15" t="n">
         <v>6.6</v>
@@ -2534,19 +2534,19 @@
       </c>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="AY15" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB15" t="n">
         <v>120</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>150</v>
       </c>
       <c r="BC15" t="n">
         <v>300</v>
@@ -2614,7 +2614,7 @@
         <v>1.16</v>
       </c>
       <c r="R16" t="n">
-        <v>3.94</v>
+        <v>3.96</v>
       </c>
       <c r="S16" t="n">
         <v>1.12</v>
@@ -2970,7 +2970,7 @@
         <v>1.18</v>
       </c>
       <c r="R18" t="n">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="S18" t="n">
         <v>1.14</v>
@@ -2979,10 +2979,10 @@
         <v>4.9</v>
       </c>
       <c r="U18" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="V18" t="n">
-        <v>2.73</v>
+        <v>2.77</v>
       </c>
       <c r="W18" t="n">
         <v>13.5</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
@@ -927,16 +927,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K3" t="n">
         <v>2.4</v>
@@ -1035,7 +1035,7 @@
         <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1056,7 +1056,7 @@
         <v>51</v>
       </c>
       <c r="AX3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
         <v>29</v>
@@ -1658,10 +1658,10 @@
         <v>2.02</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
         <v>2.6</v>
@@ -1685,10 +1685,10 @@
         <v>3.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1697,16 +1697,16 @@
         <v>3.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="W7" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
@@ -1721,7 +1721,7 @@
         <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD7" t="n">
         <v>6.7</v>
@@ -1730,7 +1730,7 @@
         <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG7" t="n">
         <v>350</v>
@@ -1739,7 +1739,7 @@
         <v>11</v>
       </c>
       <c r="AI7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
         <v>11.25</v>
@@ -1760,7 +1760,7 @@
         <v>10.25</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>37</v>
@@ -1772,7 +1772,7 @@
         <v>200</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU7" t="n">
         <v>6.8</v>
@@ -2407,22 +2407,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H15" t="n">
         <v>2.95</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="K15" t="n">
         <v>2.02</v>
       </c>
       <c r="L15" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
@@ -2443,37 +2443,37 @@
         <v>1.65</v>
       </c>
       <c r="S15" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T15" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="U15" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V15" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="W15" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="X15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD15" t="n">
         <v>5.1</v>
@@ -2485,13 +2485,13 @@
         <v>45</v>
       </c>
       <c r="AG15" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AI15" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ15" t="n">
         <v>9.25</v>
@@ -2500,28 +2500,28 @@
         <v>35</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AP15" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR15" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AS15" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT15" t="n">
         <v>2.47</v>
@@ -2534,22 +2534,22 @@
       </c>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AY15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AZ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB15" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BC15" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD15" t="inlineStr"/>
     </row>
@@ -2602,19 +2602,23 @@
       <c r="L16" t="n">
         <v>2.07</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16.5</v>
+      </c>
       <c r="O16" t="n">
         <v>1.07</v>
       </c>
       <c r="P16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="R16" t="n">
-        <v>3.96</v>
+        <v>4.05</v>
       </c>
       <c r="S16" t="n">
         <v>1.12</v>
@@ -2623,10 +2627,10 @@
         <v>5.3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="V16" t="n">
-        <v>3.87</v>
+        <v>3.97</v>
       </c>
       <c r="W16" t="n">
         <v>24</v>
@@ -2767,16 +2771,16 @@
         <v>4.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J17" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="K17" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="L17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
@@ -2821,10 +2825,10 @@
         <v>16</v>
       </c>
       <c r="AA17" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
         <v>26</v>
@@ -2842,7 +2846,7 @@
         <v>80</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
         <v>22</v>
@@ -2860,13 +2864,13 @@
         <v>17</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AO17" t="n">
         <v>8.75</v>
       </c>
       <c r="AP17" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AQ17" t="n">
         <v>24</v>
@@ -2878,34 +2882,34 @@
         <v>80</v>
       </c>
       <c r="AT17" t="n">
-        <v>4.4</v>
+        <v>4.55</v>
       </c>
       <c r="AU17" t="n">
         <v>6.1</v>
       </c>
       <c r="AV17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW17" t="n">
         <v>300</v>
       </c>
       <c r="AX17" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AY17" t="n">
         <v>15.5</v>
       </c>
       <c r="AZ17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="BA17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BC17" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BD17" t="inlineStr"/>
     </row>
@@ -2944,7 +2948,7 @@
         <v>1.31</v>
       </c>
       <c r="H18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I18" t="n">
         <v>6.2</v>
@@ -2953,10 +2957,10 @@
         <v>1.65</v>
       </c>
       <c r="K18" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -2964,13 +2968,13 @@
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="Q18" t="n">
         <v>1.18</v>
       </c>
       <c r="R18" t="n">
-        <v>3.68</v>
+        <v>3.72</v>
       </c>
       <c r="S18" t="n">
         <v>1.14</v>
@@ -2988,13 +2992,13 @@
         <v>13.5</v>
       </c>
       <c r="X18" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
         <v>8.5</v>
@@ -3018,7 +3022,7 @@
         <v>120</v>
       </c>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
         <v>45</v>
@@ -3036,52 +3040,52 @@
         <v>30</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AO18" t="n">
         <v>5.9</v>
       </c>
       <c r="AP18" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS18" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AT18" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV18" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AW18" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AX18" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA18" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC18" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BD18" t="inlineStr"/>
     </row>
@@ -3117,94 +3121,94 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="H19" t="n">
-        <v>5.2</v>
+        <v>8.25</v>
       </c>
       <c r="I19" t="n">
         <v>9.25</v>
       </c>
       <c r="J19" t="n">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="K19" t="n">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="L19" t="n">
         <v>7.6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="P19" t="n">
-        <v>4.45</v>
+        <v>5.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="R19" t="n">
-        <v>2.37</v>
+        <v>2.77</v>
       </c>
       <c r="S19" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="T19" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="U19" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.82</v>
+        <v>1.34</v>
       </c>
       <c r="W19" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.75</v>
+        <v>14</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.25</v>
+        <v>5.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>10.25</v>
+        <v>13.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="AG19" t="n">
         <v>700</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AJ19" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="n">
         <v>250</v>
@@ -3213,46 +3217,46 @@
         <v>110</v>
       </c>
       <c r="AM19" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AO19" t="n">
-        <v>5.5</v>
+        <v>3.95</v>
       </c>
       <c r="AP19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AU19" t="n">
         <v>14</v>
       </c>
-      <c r="AQ19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AV19" t="n">
-        <v>70</v>
+        <v>175</v>
       </c>
       <c r="AW19" t="n">
         <v>51</v>
       </c>
       <c r="AX19" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AY19" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AZ19" t="n">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="BA19" t="n">
         <v>400</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -927,22 +927,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -963,10 +963,10 @@
         <v>2.15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U3" t="n">
         <v>1.73</v>
@@ -975,16 +975,16 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
@@ -1005,19 +1005,19 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1026,10 +1026,10 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
         <v>17</v>
@@ -1044,7 +1044,7 @@
         <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
         <v>8</v>
@@ -1059,13 +1059,13 @@
         <v>7</v>
       </c>
       <c r="AY3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>29</v>
       </c>
-      <c r="AZ3" t="n">
-        <v>34</v>
-      </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
         <v>101</v>
@@ -1109,16 +1109,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
@@ -1127,22 +1127,22 @@
         <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2.6</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1151,22 +1151,22 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
@@ -1223,13 +1223,13 @@
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
         <v>2.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
@@ -1262,7 +1262,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>xrkDKQao</t>
+          <t>C2Y1D9hI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1282,37 +1282,37 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Amazonas</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.48</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.05</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1333,109 +1333,109 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
         <v>34</v>
       </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AL5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM5" t="n">
         <v>34</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AN5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP5" t="n">
         <v>23</v>
       </c>
-      <c r="AK5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
         <v>67</v>
       </c>
-      <c r="AN5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
         <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
         <v>81</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA5" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC5" t="n">
         <v>201</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>351</v>
       </c>
       <c r="BD5" t="n">
         <v>81</v>
@@ -1444,7 +1444,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>C2Y1D9hI</t>
+          <t>tKBCTArm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1454,179 +1454,175 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>EL SALVADOR - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Aguila</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Amazonas</t>
+          <t>Luis Angel Firpo</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V6" t="n">
         <v>2.05</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AA6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI6" t="n">
         <v>19</v>
       </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AP6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>23</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>26</v>
-      </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="BB6" t="n">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="BC6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>81</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tKBCTArm</t>
+          <t>MLsbZI4b</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1636,175 +1632,79 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EL SALVADOR - PRIMERA DIVISION</t>
+          <t>MARTINIQUE - TROPHEE GERARD JANVION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Aguila</t>
+          <t>Aiglon Lamentin</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Luis Angel Firpo</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>55</v>
-      </c>
+          <t>Samaritaine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>24</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>120</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>300</v>
-      </c>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MLsbZI4b</t>
+          <t>06gkyuzn</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1824,12 +1724,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aiglon Lamentin</t>
+          <t>Club Peleen</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Samaritaine</t>
+          <t>Emulation</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -1886,7 +1786,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>06gkyuzn</t>
+          <t>4G1tZ9AF</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1906,12 +1806,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Club Peleen</t>
+          <t>CS Case-Pilote</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Emulation</t>
+          <t>Trenelle</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -1968,7 +1868,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4G1tZ9AF</t>
+          <t>8UHwFlJq</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1988,12 +1888,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CS Case-Pilote</t>
+          <t>Diamantinoise</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trenelle</t>
+          <t>New Club</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -2050,7 +1950,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8UHwFlJq</t>
+          <t>djbYzWu3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2070,12 +1970,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Diamantinoise</t>
+          <t>Espoir</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>New Club</t>
+          <t>RC Saint Joseph</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -2132,7 +2032,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>djbYzWu3</t>
+          <t>trGoDSmd</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2152,12 +2052,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Espoir</t>
+          <t>Golden Lion</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>RC Saint Joseph</t>
+          <t>Club Colonial</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -2214,7 +2114,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>trGoDSmd</t>
+          <t>Uoo6XdZA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2234,12 +2134,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Golden Lion</t>
+          <t>Golden Star</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Club Colonial</t>
+          <t>Franciscain</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -2296,7 +2196,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Uoo6XdZA</t>
+          <t>2LASvoMN</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2306,79 +2206,175 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>23:06</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MARTINIQUE - TROPHEE GERARD JANVION</t>
+          <t>MEXICO - LIGA MX WOMEN</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Golden Star</t>
+          <t>U.A.N.L.- Tigres W</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Franciscain</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
+          <t>Monterrey W</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>55</v>
+      </c>
       <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
+      <c r="AX14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>250</v>
+      </c>
       <c r="BD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2LASvoMN</t>
+          <t>tvUXozpg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2388,175 +2384,173 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>23:06</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX WOMEN</t>
+          <t>NEW ZEALAND - NATIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>U.A.N.L.- Tigres W</t>
+          <t>Cashmere Technical</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Monterrey W</t>
+          <t>Birkenhead</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.18</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>2.95</v>
+        <v>4.55</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="J15" t="n">
-        <v>2.8</v>
+        <v>3.55</v>
       </c>
       <c r="K15" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="L15" t="n">
         <v>2.02</v>
       </c>
-      <c r="L15" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7.6</v>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="P15" t="n">
-        <v>2.88</v>
+        <v>7.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>1.15</v>
       </c>
       <c r="R15" t="n">
-        <v>1.65</v>
+        <v>4.1</v>
       </c>
       <c r="S15" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="T15" t="n">
-        <v>2.47</v>
+        <v>5.3</v>
       </c>
       <c r="U15" t="n">
-        <v>1.84</v>
+        <v>1.23</v>
       </c>
       <c r="V15" t="n">
-        <v>1.86</v>
+        <v>3.97</v>
       </c>
       <c r="W15" t="n">
-        <v>5.9</v>
+        <v>25</v>
       </c>
       <c r="X15" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH15" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AI15" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AK15" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>22</v>
+        <v>10.25</v>
       </c>
       <c r="AM15" t="n">
-        <v>26</v>
+        <v>11.75</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.1</v>
+        <v>7.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>11.75</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR15" t="n">
         <v>50</v>
       </c>
-      <c r="AR15" t="n">
-        <v>80</v>
-      </c>
       <c r="AS15" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.47</v>
+        <v>5.6</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AV15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW15" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>200</v>
+      </c>
       <c r="AX15" t="n">
-        <v>5.2</v>
+        <v>4.85</v>
       </c>
       <c r="AY15" t="n">
-        <v>17.5</v>
+        <v>7.9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>10.25</v>
       </c>
       <c r="BA15" t="n">
-        <v>80</v>
+        <v>18.5</v>
       </c>
       <c r="BB15" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="BC15" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="BD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tvUXozpg</t>
+          <t>EiSupEE5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2566,7 +2560,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2576,167 +2570,167 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cashmere Technical</t>
+          <t>Wellington Olympic</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Birkenhead</t>
+          <t>Napier City</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L16" t="n">
         <v>3.35</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.07</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>16.5</v>
+        <v>14.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P16" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.15</v>
+        <v>1.53</v>
       </c>
       <c r="R16" t="n">
-        <v>4.05</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="T16" t="n">
-        <v>5.3</v>
+        <v>4.6</v>
       </c>
       <c r="U16" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="V16" t="n">
-        <v>3.97</v>
+        <v>3.25</v>
       </c>
       <c r="W16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>24</v>
       </c>
-      <c r="X16" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>37</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>55</v>
-      </c>
       <c r="AR16" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AS16" t="n">
         <v>80</v>
       </c>
       <c r="AT16" t="n">
-        <v>5.6</v>
+        <v>4.55</v>
       </c>
       <c r="AU16" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AX16" t="n">
         <v>6.2</v>
       </c>
-      <c r="AV16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>4.9</v>
-      </c>
       <c r="AY16" t="n">
-        <v>8.25</v>
+        <v>15.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10.25</v>
+        <v>15.5</v>
       </c>
       <c r="BA16" t="n">
-        <v>19.5</v>
+        <v>55</v>
       </c>
       <c r="BB16" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="BC16" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EiSupEE5</t>
+          <t>AJLlrhqI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2756,167 +2750,159 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wellington Olympic</t>
+          <t>Western Springs</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Napier City</t>
+          <t>Wellington Phoenix 2</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.82</v>
+        <v>1.28</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.15</v>
+        <v>6.8</v>
       </c>
       <c r="J17" t="n">
-        <v>2.22</v>
+        <v>1.6</v>
       </c>
       <c r="K17" t="n">
-        <v>2.62</v>
+        <v>3.05</v>
       </c>
       <c r="L17" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5.8</v>
-      </c>
+        <v>5.6</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>3.82</v>
       </c>
       <c r="S17" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="T17" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="V17" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="W17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X17" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD17" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y17" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AE17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>350</v>
+      </c>
+      <c r="AX17" t="n">
         <v>9.75</v>
       </c>
-      <c r="AF17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AY17" t="n">
         <v>32</v>
       </c>
-      <c r="AS17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>300</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AZ17" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="BA17" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="BB17" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="BC17" t="n">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AJLlrhqI</t>
+          <t>8QDyJb4U</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2926,348 +2912,172 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NEW ZEALAND - NATIONAL LEAGUE</t>
+          <t>URUGUAY - COPA URUGUAY</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Western Springs</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Wellington Phoenix 2</t>
+          <t>Montevideo City</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="H18" t="n">
+        <v>8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z18" t="n">
         <v>5.4</v>
       </c>
-      <c r="I18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P18" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T18" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="W18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z18" t="n">
+      <c r="AA18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC18" t="n">
         <v>10</v>
       </c>
-      <c r="AA18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>32</v>
-      </c>
       <c r="AD18" t="n">
-        <v>11.75</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>13.5</v>
+        <v>60</v>
       </c>
       <c r="AF18" t="n">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="AG18" t="n">
-        <v>120</v>
+        <v>700</v>
       </c>
       <c r="AH18" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="AI18" t="n">
-        <v>45</v>
+        <v>600</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18.5</v>
+        <v>150</v>
       </c>
       <c r="AK18" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AL18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AR18" t="n">
         <v>40</v>
       </c>
-      <c r="AM18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>21</v>
-      </c>
       <c r="AS18" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="AT18" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.1</v>
+        <v>13</v>
       </c>
       <c r="AV18" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="AW18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>250</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>400</v>
+      </c>
+      <c r="BB18" t="n">
         <v>350</v>
       </c>
-      <c r="AX18" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>150</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>110</v>
-      </c>
       <c r="BC18" t="n">
-        <v>150</v>
-      </c>
-      <c r="BD18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>8QDyJb4U</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>22/11/2024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>21:15</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>URUGUAY - COPA URUGUAY</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Nacional</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Montevideo City</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="H19" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N19" t="n">
-        <v>10</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X19" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>400</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI19" t="n">
         <v>500</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>175</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>250</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>150</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>400</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD19" t="n">
+      <c r="BD18" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
@@ -771,28 +771,28 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="P2" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="R2" t="n">
-        <v>3.04</v>
+        <v>3.25</v>
       </c>
       <c r="S2" t="n">
         <v>1.16</v>
       </c>
       <c r="T2" t="n">
-        <v>4.55</v>
+        <v>4.54</v>
       </c>
       <c r="U2" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="V2" t="n">
-        <v>3.25</v>
+        <v>2.74</v>
       </c>
       <c r="W2" t="n">
         <v>13</v>
@@ -969,10 +969,10 @@
         <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
@@ -984,13 +984,13 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
         <v>13</v>
@@ -1109,22 +1109,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1139,16 +1139,16 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
         <v>2.1</v>
@@ -1166,73 +1166,73 @@
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
         <v>19</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
         <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
         <v>126</v>
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1315,16 +1315,16 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1333,25 +1333,25 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y5" t="n">
         <v>10</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA5" t="n">
         <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
@@ -1372,34 +1372,34 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
@@ -1420,19 +1420,19 @@
         <v>81</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA5" t="n">
         <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC5" t="n">
         <v>201</v>
@@ -2243,10 +2243,10 @@
         <v>3.65</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
@@ -2423,13 +2423,13 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="R15" t="n">
         <v>4.1</v>
@@ -2793,10 +2793,10 @@
         <v>5.3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="V17" t="n">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="W17" t="n">
         <v>14</v>

--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-22.xlsx
@@ -1321,10 +1321,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -2243,10 +2243,10 @@
         <v>3.65</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
@@ -2759,32 +2759,32 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="H17" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="I17" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="J17" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="K17" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="L17" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="R17" t="n">
-        <v>3.82</v>
+        <v>3.74</v>
       </c>
       <c r="S17" t="n">
         <v>1.12</v>
@@ -2793,109 +2793,109 @@
         <v>5.3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="V17" t="n">
-        <v>2.73</v>
+        <v>2.85</v>
       </c>
       <c r="W17" t="n">
         <v>14</v>
       </c>
       <c r="X17" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA17" t="n">
         <v>8.75</v>
       </c>
-      <c r="Z17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
         <v>32</v>
       </c>
       <c r="AD17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE17" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE17" t="n">
-        <v>14</v>
-      </c>
       <c r="AF17" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG17" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AH17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AJ17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK17" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AL17" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AM17" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="AO17" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="AP17" t="n">
         <v>10.25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS17" t="n">
         <v>70</v>
       </c>
       <c r="AT17" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AV17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AW17" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AX17" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="AY17" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AZ17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BA17" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC17" t="n">
         <v>150</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>120</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>175</v>
       </c>
       <c r="BD17" t="inlineStr"/>
     </row>
